--- a/docx/实验数据表.xlsx
+++ b/docx/实验数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\bs\工作表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B4EF99-4983-44FF-A472-FE673D171D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D6F212-6D6A-4D05-917F-9D063CDAB1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>什么是鞠躬,怎么鞠躬</t>
   </si>
   <si>
-    <t>向左旋转30度</t>
-  </si>
-  <si>
     <t>arm_rotate(-30)</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>place_to</t>
   </si>
   <si>
-    <t>arm_clamp_block</t>
-  </si>
-  <si>
     <t>移动到红色方块位置</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>抓取红色方块</t>
   </si>
   <si>
-    <t>get_coordinate-&gt;grab_object</t>
-  </si>
-  <si>
     <t>抓取蓝色方块</t>
   </si>
   <si>
@@ -321,9 +312,6 @@
     <t>vlm_move_ready</t>
   </si>
   <si>
-    <t>世界骑马，物质不守恒，红方块放到旁边 no body cares</t>
-  </si>
-  <si>
     <t>将圆珠笔放入两个方块的中间缝里</t>
   </si>
   <si>
@@ -384,9 +372,6 @@
     <t>移动到小红色方块的位置，然后抓住它</t>
   </si>
   <si>
-    <t>get_coordinate-&gt;move_to-&gt;ram_clamp_block</t>
-  </si>
-  <si>
     <t>将物体放到旁边去</t>
   </si>
   <si>
@@ -412,9 +397,6 @@
   </si>
   <si>
     <t>语义理解，左向右第二个</t>
-  </si>
-  <si>
-    <t>抓取从左到右数起的第二个红色方块</t>
   </si>
   <si>
     <t>语义理解，左向右第二个红色</t>
@@ -548,6 +530,30 @@
   </si>
   <si>
     <t>vision_identify-&gt;vlm_move_ready -&gt;vlm_move</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlm_move_ready -&gt;move_to-&gt;ram_clamp_block</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_to</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界骑马，物质不守恒，红方块放到旁边 no body cares</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向左旋转30度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取从左到右数起的第二个红色方块放到蓝色方块位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +635,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1249,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1252,16 +1258,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2" t="s">
@@ -1274,16 +1280,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="2" t="s">
@@ -1296,16 +1302,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="2" t="s">
@@ -1318,16 +1324,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="2" t="s">
@@ -1340,7 +1346,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>30</v>
@@ -1348,10 +1354,10 @@
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1360,16 +1366,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="2" t="s">
@@ -1382,19 +1388,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
@@ -1406,19 +1412,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1436,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1460,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>10</v>
@@ -1478,16 +1484,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="4" t="s">
@@ -1500,19 +1506,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1530,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1554,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1578,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>10</v>
@@ -1596,19 +1602,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>25</v>
@@ -1620,19 +1626,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>25</v>
@@ -1644,19 +1650,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>25</v>
@@ -1668,19 +1674,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1698,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>10</v>
@@ -1716,22 +1722,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -1740,19 +1746,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="E37" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>25</v>
@@ -1788,22 +1794,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -1812,7 +1818,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -1820,7 +1826,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>10</v>
@@ -1832,7 +1838,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>8</v>
@@ -1840,7 +1846,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1858,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1882,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1906,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1930,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>25</v>
@@ -1948,7 +1954,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>8</v>
@@ -1960,7 +1966,7 @@
         <v>18</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1978,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>10</v>
@@ -1996,16 +2002,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="2" t="s">
@@ -2018,16 +2024,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="2" t="s">
@@ -2040,16 +2046,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="2" t="s">
@@ -2062,16 +2068,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="2" t="s">
@@ -2084,16 +2090,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="2" t="s">
@@ -2106,19 +2112,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2160,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>25</v>
@@ -2178,16 +2184,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
@@ -2200,19 +2206,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2230,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2350,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2374,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>10</v>
@@ -2392,15 +2398,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>25</v>
@@ -2436,19 +2442,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>10</v>
@@ -2460,7 +2466,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>30</v>
@@ -2468,7 +2474,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="7"/>
       <c r="F68" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2534,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>10</v>
@@ -2552,7 +2558,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -2568,7 +2574,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -2584,7 +2590,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -2600,7 +2606,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -2616,7 +2622,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2632,7 +2638,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2648,7 +2654,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2664,7 +2670,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2680,7 +2686,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2696,7 +2702,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -2939,7 +2945,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
